--- a/z_db/Data/Mapel/mapel.xlsx
+++ b/z_db/Data/Mapel/mapel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\z_db\Data\mapel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\z_db\Data\Mapel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E9A3B1-573E-490F-9726-ADA01CA4C950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D93A1-CC15-4B1F-8241-AC10E0B21221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5B5B16F-C19B-4843-81B4-9AA2068EC96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A98B7471-7E75-4ADE-BCCF-A321650F98F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -74,7 +74,7 @@
     <t>Seni Budaya</t>
   </si>
   <si>
-    <t>Produk/Projek Kreatif dan Kewirausahaan</t>
+    <t>Produk / Projek Kreatif dan Kewirausahaan</t>
   </si>
   <si>
     <t>Sketsa dan Ilustrasi</t>
@@ -152,7 +152,7 @@
     <t>Perpajakan</t>
   </si>
   <si>
-    <t>Praktikum Akuntansi Lembaga/ Instansi Pemerintah</t>
+    <t>Praktikum Akuntansi Lembaga / Instansi Pemerintah</t>
   </si>
   <si>
     <t>Dasar Akuntansi dan Perbankan</t>
@@ -167,7 +167,7 @@
     <t>Akuntansi Dasar</t>
   </si>
   <si>
-    <t>Aplikasi Pengolah Angka/Spreadsheet</t>
+    <t>Aplikasi Pengolah Angka / Spreadsheet</t>
   </si>
   <si>
     <t>Mapel Pilihan: Microsoft Class</t>
@@ -221,7 +221,7 @@
     <t>Audio dan Video (K13)</t>
   </si>
   <si>
-    <t>Pemrograman Berbasis Teks, Grafis, dan Multimedia</t>
+    <t>Pemrograman Berbasis Teks,Grafis, dan Multimedia</t>
   </si>
   <si>
     <t>Pemrograman Web dan Perangkat Bergerak</t>
@@ -281,7 +281,8 @@
     <t>Cloud Computing</t>
   </si>
   <si>
-    <t>Bisnis Teknik Komtel dan Kewirausahaan (BTKK)</t>
+    <t>Bisnis Teknik Komtel dan_x000D_
+Kewirausahaan (BTKK)</t>
   </si>
   <si>
     <t>Keamanan Jaringan (KJ)</t>
@@ -333,17 +334,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -351,18 +344,10 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,12 +377,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,490 +699,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A42167-9E4B-416B-B47B-1568BA96AD5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4467BC-4FFB-445A-9BBC-DFA4A316FC07}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.5546875" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>